--- a/src/attributions/attributions_ig_traj_218.xlsx
+++ b/src/attributions/attributions_ig_traj_218.xlsx
@@ -1004,25 +1004,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3032774189925488</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0.2029285906775732</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1314415874498615</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00566531315685656</v>
+        <v>-0.0489198425369044</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>-0.2039069797821435</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
@@ -1031,25 +1031,25 @@
         <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02465252880179401</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0</v>
+        <v>0.01382290575525684</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03226403212891337</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01230383806013682</v>
+        <v>0.002449478488282985</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0.0442631625800613</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q2" t="n">
         <v>-0</v>
@@ -1058,22 +1058,22 @@
         <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01618327352795415</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0</v>
+        <v>0.01211027083294388</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.04740207596630859</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.2604200230991982</v>
+        <v>-0.08874809981403427</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-0.03943152316872708</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -1085,49 +1085,49 @@
         <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.05653913248896409</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.03112777673599575</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.09841822008414208</v>
+        <v>-0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.1933127111399146</v>
+        <v>0.1204441421551671</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0</v>
+        <v>0.04790809052615605</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.130097530524459</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>0.04818484970019409</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.02536573585775499</v>
+        <v>-0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.08116735505236689</v>
+        <v>0.04277794525325546</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>-0.1195547718489098</v>
       </c>
       <c r="AQ2" t="n">
         <v>-0</v>
@@ -1139,106 +1139,106 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.3349909851858599</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>0.2433553909377797</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.1995113732337171</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
         <v>-0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.02172757706298126</v>
+        <v>-0.1476706980403516</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0.3810584717826482</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.1369438932969651</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0</v>
+        <v>0.1207749947031511</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.0831163329653361</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0296530387403429</v>
+        <v>-0.02615956116734798</v>
       </c>
       <c r="BH2" t="n">
-        <v>0</v>
+        <v>-0.06621391016378995</v>
       </c>
       <c r="BI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
         <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.08005614343441936</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>0.0001840758772916465</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.07542749572201363</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.1670496386749993</v>
+        <v>-0.02701159701704657</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0.01590446965451614</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.2035320582495141</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.06387948538210578</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.05396489002009024</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
         <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.01134414296291889</v>
+        <v>-0.1019661637218371</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0</v>
+        <v>-0.1161547233751528</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
         <v>-0</v>
@@ -1247,22 +1247,22 @@
         <v>-0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.1536127510354645</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0.09999892273220937</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.04935269382864223</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.01113850698661122</v>
+        <v>0.02256445087727526</v>
       </c>
       <c r="CI2" t="n">
-        <v>0</v>
+        <v>0.1114156746813355</v>
       </c>
       <c r="CJ2" t="n">
         <v>0</v>
@@ -1271,28 +1271,28 @@
         <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.01772878661472339</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>0.002618536853996481</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.005706631642773592</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
         <v>-0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.1292825075563518</v>
+        <v>0.04480032653624928</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0.01230190190511231</v>
       </c>
       <c r="CS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT2" t="n">
         <v>-0</v>
@@ -1301,25 +1301,25 @@
         <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.1373570581704305</v>
+        <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>-0.08135667542982904</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.06832841541941137</v>
+        <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.06988330918664999</v>
+        <v>0.01477688769894233</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0</v>
+        <v>0.1251135891169797</v>
       </c>
       <c r="DB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC2" t="n">
         <v>-0</v>
@@ -1328,22 +1328,22 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.07810914682357152</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>0.04869346391191082</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.006503309393752615</v>
+        <v>-0</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.001679101361731117</v>
+        <v>0.04670034693943906</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0.004921230597223906</v>
       </c>
       <c r="DK2" t="n">
         <v>-0</v>
@@ -1352,205 +1352,205 @@
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0009400875575043499</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>0.0170690965166942</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.03823736350461351</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.002113833331173273</v>
+        <v>0.09762799927350577</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>-0.01651112157121482</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU2" t="n">
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.004734750193493452</v>
+        <v>-0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>0.04786376305129841</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.00295048857604863</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.1912647660960367</v>
+        <v>-0.002466107036125797</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>-0.01062321062650451</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE2" t="n">
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.2448058687803321</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0.1072336276855924</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.06551307623218769</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.02880191107542749</v>
+        <v>-0.01160921830577171</v>
       </c>
       <c r="EK2" t="n">
-        <v>0</v>
+        <v>0.1230465486167455</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN2" t="n">
         <v>-0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.05944812320216883</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0.04786519836445473</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.07322523998278305</v>
+        <v>-0</v>
       </c>
       <c r="ER2" t="n">
         <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.07562856831328402</v>
+        <v>0.03713622642471926</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0.06123291785697746</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV2" t="n">
         <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.147465547748752</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0.08002683643796135</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.06228590940033211</v>
+        <v>-0</v>
       </c>
       <c r="FA2" t="n">
         <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.03182717298209559</v>
+        <v>0.02696689249196997</v>
       </c>
       <c r="FC2" t="n">
-        <v>0</v>
+        <v>0.1144545931797553</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.1226069481829388</v>
+        <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>-0.07328578524471889</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.04000276537280797</v>
+        <v>-0</v>
       </c>
       <c r="FJ2" t="n">
         <v>-0</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.0302884852020697</v>
+        <v>-0.05502268613446842</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>0.128991699199469</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.04172228850327175</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>-0.1536573435632627</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.03537875517687473</v>
+        <v>0</v>
       </c>
       <c r="FS2" t="n">
         <v>-0</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.08711784724208899</v>
+        <v>0.04836743607576374</v>
       </c>
       <c r="FU2" t="n">
-        <v>0</v>
+        <v>0.07015484150652893</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.06487056344483216</v>
+        <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>-0.04359163589180996</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.02443209872859277</v>
+        <v>-0</v>
       </c>
       <c r="GB2" t="n">
         <v>0</v>
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>-0.02660780921729116</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF2" t="n">
         <v>-0</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1627,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -1681,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -1708,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
@@ -1978,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
@@ -2032,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
@@ -2086,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR3" t="n">
         <v>0</v>
@@ -2142,49 +2142,49 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2497107527930731</v>
+        <v>-0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0.06164528477532262</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.04646531554224732</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.07205480246711138</v>
+        <v>-0.00947181562570072</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>-0.02084134091931661</v>
       </c>
       <c r="G4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>-0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04237396828178754</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0.008402246568090087</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.01652395143788122</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.02179210026951916</v>
+        <v>-0.001642007652415226</v>
       </c>
       <c r="O4" t="n">
-        <v>-0</v>
+        <v>-0.005576725341241475</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2196,292 +2196,292 @@
         <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02932827016149521</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>0.002505032973461024</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.02459211097033346</v>
+        <v>-0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.2277431779554817</v>
+        <v>-0.006786407708217594</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.001086050619200524</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.02838163757975651</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.0118166067507868</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.04962492123299322</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.02381973935221911</v>
+        <v>0.02381388958612998</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0</v>
+        <v>-0.0008413102544217923</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.07820432312439662</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.003161421802135167</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.03679598919716103</v>
+        <v>-0</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.0515454219600062</v>
+        <v>-0.01248545679290628</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.01638385987357694</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS4" t="n">
         <v>-0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.2207376533856011</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>0.08167188550284556</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.07539737965649269</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.006763325748899338</v>
+        <v>-0.002983426838779252</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.005011874375008684</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB4" t="n">
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.08762897560339239</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0</v>
+        <v>0.03076870170503649</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.07753856632188749</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.032260922601993</v>
+        <v>-0.02042812232900237</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.04950450233859762</v>
       </c>
       <c r="BI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.05973888323768989</v>
+        <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>0.03339932611301159</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.06368474366119607</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
         <v>0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.1515699388116775</v>
+        <v>0.02317441788268359</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0</v>
+        <v>0.004460504489089329</v>
       </c>
       <c r="BR4" t="n">
         <v>-0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT4" t="n">
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.1401727650985753</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>0.0286586207638927</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0.02447660790631065</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
         <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.01689808929717769</v>
+        <v>0.006181886832478472</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.003962433757637929</v>
       </c>
       <c r="CA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC4" t="n">
         <v>-0</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0.09833088056377631</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0.01835562934276924</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.03639757557832307</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
         <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.03418527736925447</v>
+        <v>-0.001471314198837709</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0</v>
+        <v>0.01874654599405379</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL4" t="n">
         <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.009905025660365961</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0.008115025392112053</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0.001048208749723392</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
         <v>-0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.1237873777842319</v>
+        <v>-0.003892852275518035</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0</v>
+        <v>0.0007763791134900563</v>
       </c>
       <c r="CS4" t="n">
         <v>0</v>
       </c>
       <c r="CT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0.08832620609840684</v>
+        <v>-0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0</v>
+        <v>-0.01397064473119442</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.04284589641220785</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
         <v>-0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.02198531390969558</v>
+        <v>0.003277750691518288</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>0.01864369185728248</v>
       </c>
       <c r="DB4" t="n">
         <v>-0</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD4" t="n">
         <v>0</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.008415726396342088</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0.004083767682804701</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.03063888954859847</v>
+        <v>-0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.05494244053996222</v>
+        <v>0.02423368004716522</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0</v>
+        <v>0.003587403050199469</v>
       </c>
       <c r="DK4" t="n">
         <v>-0</v>
@@ -2490,220 +2490,220 @@
         <v>-0</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.03485817124591289</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0.003631185777059407</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.0002076573772844246</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.009402025068179538</v>
+        <v>2.829028960275197e-05</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>-0.005105422811569684</v>
       </c>
       <c r="DT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU4" t="n">
         <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.01349504255990401</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0</v>
+        <v>0.01291134167828595</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.01146735128985992</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.1268205485427978</v>
+        <v>-0.03098297264176144</v>
       </c>
       <c r="EB4" t="n">
-        <v>0</v>
+        <v>0.000508662513114477</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED4" t="n">
         <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0.1609706474428316</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.01563837895745484</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.01770730886224551</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.07424388827667837</v>
+        <v>-0.0004256991142169907</v>
       </c>
       <c r="EK4" t="n">
-        <v>0</v>
+        <v>0.01133111537309056</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0.03829976382424363</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0.01844991367882736</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.04193752348203075</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
         <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.1004303103298645</v>
+        <v>0.009148878918307549</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0</v>
+        <v>0.005591449427534576</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW4" t="n">
         <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0.09208808401767619</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.01719665210809002</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.04347055157892503</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
         <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.002124255327958036</v>
+        <v>0.004086736241996445</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0</v>
+        <v>0.01990846078849886</v>
       </c>
       <c r="FD4" t="n">
         <v>0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF4" t="n">
         <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.1092333205093643</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0</v>
+        <v>-0.001370416529415584</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.03300710117213585</v>
+        <v>0</v>
       </c>
       <c r="FJ4" t="n">
         <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.02912584427953635</v>
+        <v>-0.02718747500816612</v>
       </c>
       <c r="FL4" t="n">
-        <v>-0</v>
+        <v>0.01927846596110732</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.005994645764566027</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0.001412926287801983</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.01202278601509903</v>
+        <v>-0</v>
       </c>
       <c r="FS4" t="n">
         <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>-0.0007539572288291766</v>
+        <v>0.0003343553842685277</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0</v>
+        <v>0.008361267083601616</v>
       </c>
       <c r="FV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.0825568427983004</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>-0.02668185660748199</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.00239101048635815</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC4" t="n">
         <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>0.006945079661175605</v>
       </c>
       <c r="GE4" t="n">
         <v>0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
         <v>0</v>
@@ -2711,22 +2711,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3876727280763847</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.1191637788464301</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.08896432870536165</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.05237040522515302</v>
+        <v>-0.000244472505624229</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-0.0775106720181679</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2735,136 +2735,136 @@
         <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1216518414526343</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.03302838053058574</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.04394385752801239</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03052012189642187</v>
+        <v>-0.0002387669203468907</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-0.03003977676142359</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
         <v>-0</v>
       </c>
       <c r="R5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04957132884433649</v>
+        <v>-0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>-0.002284935655014759</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.05799046197923274</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.2384641598404079</v>
+        <v>-0.02285615139674775</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0.002035207997721834</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.002868692831046611</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.01466475381318209</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.01770741771874882</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01435322567349161</v>
+        <v>0.02499733283907983</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>0.003625874880884475</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1255197109852179</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.02024443533119928</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.01829425002664151</v>
+        <v>-0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.01421780059012923</v>
+        <v>0.002488386176331627</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>-0.03683754671665188</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.3242629984891365</v>
+        <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.1278014506336576</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.1347798356189651</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.008640555150036281</v>
+        <v>0.01175623674190871</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0.0900154314256542</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
         <v>-0</v>
@@ -2873,49 +2873,49 @@
         <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.133123905196422</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0</v>
+        <v>0.05362211914798582</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.0962941493642909</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
         <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.005235403509353367</v>
+        <v>-0.03211875218902337</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>-0.06676288011334312</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
         <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.06260366688654129</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.04458169923675846</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.05509775964484237</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.2032677822952902</v>
+        <v>0.02126862868062271</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>-0.007043322162713457</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
@@ -2927,52 +2927,52 @@
         <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.1991335126826519</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.04455691860171433</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0.03829526786982412</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.02472243580994669</v>
+        <v>-0.003401293739031888</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0</v>
+        <v>-0.02467392885279949</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0.1523351535636693</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.03511691291232748</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.04831980532187832</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
         <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.03212005720617939</v>
+        <v>-0.004431916780775235</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0.03606415395618955</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
         <v>0</v>
@@ -2981,49 +2981,49 @@
         <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.004373255457297619</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>0.004074752419878877</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.003434543952851973</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.1314109880919571</v>
+        <v>0.009724712516633186</v>
       </c>
       <c r="CR5" t="n">
-        <v>0</v>
+        <v>-0.003520570998939234</v>
       </c>
       <c r="CS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
         <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0.1325138059065155</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.03046445154678787</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.05081268475402464</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.04312766454289897</v>
+        <v>0.0002365190742413883</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>0.03887609900341878</v>
       </c>
       <c r="DB5" t="n">
         <v>0</v>
@@ -3032,55 +3032,55 @@
         <v>-0</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.02573750378697186</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.01034247757987183</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.01376573205352131</v>
+        <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.01041789145057502</v>
+        <v>0.00813141640399475</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0.005290865928317907</v>
       </c>
       <c r="DK5" t="n">
         <v>0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.02230231376405665</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.01676601883045015</v>
       </c>
       <c r="DP5" t="n">
-        <v>-0.002889681310566266</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
         <v>-0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.0732967898703358</v>
+        <v>0.01100865933635951</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>-0.008103463346265306</v>
       </c>
       <c r="DT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
         <v>0</v>
@@ -3089,103 +3089,103 @@
         <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.02007101059931865</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.0129492763358943</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0.01309529714828817</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.1150710782642337</v>
+        <v>-0.02228210556374816</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0.001582632522033156</v>
       </c>
       <c r="EC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED5" t="n">
         <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0.2391142761983821</v>
+        <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.0247554421519228</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.04582439479146606</v>
+        <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.08698192825664842</v>
+        <v>-0.000471459209142786</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>0.02826041639991656</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0.04797776684597799</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.02713202593662809</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.05914330888923743</v>
+        <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.0796219986249041</v>
+        <v>0.005385721609663822</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0</v>
+        <v>0.03309245763536544</v>
       </c>
       <c r="EU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
         <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0.1256660612763172</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.02705060628418314</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.04947600474772096</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
         <v>-0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.02148477730824417</v>
+        <v>-0.002302468110360555</v>
       </c>
       <c r="FC5" t="n">
-        <v>-0</v>
+        <v>0.03650115454140639</v>
       </c>
       <c r="FD5" t="n">
         <v>-0</v>
@@ -3197,67 +3197,67 @@
         <v>0</v>
       </c>
       <c r="FG5" t="n">
-        <v>-0.1147322514213491</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>-0.007137900638944977</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.02429089495984432</v>
+        <v>0</v>
       </c>
       <c r="FJ5" t="n">
         <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.01265231746499269</v>
+        <v>-0.0255698564969661</v>
       </c>
       <c r="FL5" t="n">
-        <v>0</v>
+        <v>0.01900989711617514</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>-0.01664119568683263</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.005737293127769899</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.01852270505980061</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
         <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.001075867647423027</v>
+        <v>0.001099278822622304</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>0.02910416436813578</v>
       </c>
       <c r="FV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.09712123993918458</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.02102059787942549</v>
       </c>
       <c r="GA5" t="n">
-        <v>-0.02886404884392916</v>
+        <v>-0</v>
       </c>
       <c r="GB5" t="n">
         <v>0</v>
@@ -3266,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>-0.004307472663903668</v>
       </c>
       <c r="GE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3307,10 +3307,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -3334,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -3361,10 +3361,10 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -3415,10 +3415,10 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
@@ -3442,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN6" t="n">
         <v>0</v>
@@ -3496,10 +3496,10 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -3523,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF6" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
@@ -3631,10 +3631,10 @@
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
@@ -3685,10 +3685,10 @@
         <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH6" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         <v>0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ6" t="n">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="FG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI6" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR6" t="n">
         <v>0</v>
@@ -3849,52 +3849,52 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3818392625837098</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0.2237328732943498</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06893406005211153</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.06515417034618702</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03277588394987831</v>
+        <v>-0.04925240757766072</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>-0.08476463419001774</v>
       </c>
       <c r="G7" t="n">
-        <v>0.008774553186987104</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>-0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.26415086927205</v>
+        <v>-0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.113946609723205</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.04355034185924701</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.04348223548823189</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.06195122757362279</v>
+        <v>-0.02053297659647814</v>
       </c>
       <c r="O7" t="n">
-        <v>-0</v>
+        <v>-0.03670406915433636</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.03146105531393509</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -3903,133 +3903,133 @@
         <v>-0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03804863899709397</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0</v>
+        <v>0.04947635697741309</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.08010781505952923</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>-0.0155026513131434</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.1465378734191152</v>
+        <v>0.03229165502607485</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.0278265653086327</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.0842176856780497</v>
+        <v>-0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.02327041063991054</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.01191232362629384</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.06733332826480498</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.04625124271083816</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01804329122280569</v>
+        <v>-0.007114254808101944</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>-0.0261174273394349</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.09718231464217494</v>
+        <v>-0</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.1379758434531111</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>-0.002666214520989679</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.006797100462271497</v>
+        <v>-0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0.03086087095530536</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.02267545374943865</v>
+        <v>-0.02184178988213995</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>-0.03432867370494121</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.01294847331523947</v>
+        <v>-0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.2900717214807239</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.3227150389750425</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.07519100148758955</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0</v>
+        <v>-0.007751379962732096</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0408499512069404</v>
+        <v>0.0526009955330097</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>0.04119718507186194</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.0585787775896672</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.1456276722631655</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>0.03383296358613373</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.05447490874658938</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>-0.04651532443530802</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.002852738956878197</v>
+        <v>-0.08118682525031878</v>
       </c>
       <c r="BH7" t="n">
-        <v>0</v>
+        <v>-0.1414536344066122</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0.0293232829002905</v>
+        <v>0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
@@ -4038,52 +4038,52 @@
         <v>-0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.06619925588948031</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>0.07632378989844175</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.01871337771808586</v>
+        <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0</v>
+        <v>0.04455902229673983</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.1333242625026871</v>
+        <v>0.07446637399510551</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-0</v>
+        <v>0.01559255748328089</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.04114477914385067</v>
+        <v>0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.1822404455358425</v>
+        <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.1145850201877866</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0.01887210679152965</v>
+        <v>-0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>0.02824704025963684</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.01447271312942703</v>
+        <v>-0.01016993953042968</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-0</v>
+        <v>0.02534765932683216</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.01705874392419962</v>
+        <v>-0</v>
       </c>
       <c r="CB7" t="n">
         <v>-0</v>
@@ -4092,52 +4092,52 @@
         <v>-0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0.1337647174819337</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.05771564292045581</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.02561001632950892</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0</v>
+        <v>0.004502205442877549</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.01900137035271312</v>
+        <v>-0.002437689983302286</v>
       </c>
       <c r="CI7" t="n">
-        <v>0</v>
+        <v>0.04911678631156369</v>
       </c>
       <c r="CJ7" t="n">
-        <v>-0.01332716616948915</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0.01177843268538004</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0</v>
+        <v>-0.02310077433991674</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.001470561225827552</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0.03296701065330334</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.09138270833827739</v>
+        <v>-0.03164894325336205</v>
       </c>
       <c r="CR7" t="n">
-        <v>-0</v>
+        <v>-0.02088150581299981</v>
       </c>
       <c r="CS7" t="n">
-        <v>-0.0427687844748118</v>
+        <v>0</v>
       </c>
       <c r="CT7" t="n">
         <v>-0</v>
@@ -4146,79 +4146,79 @@
         <v>-0</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0.1207385341146264</v>
+        <v>-0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.04980342204901105</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.02726603645231487</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>0</v>
+        <v>0.02205934984653552</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.03397723595865231</v>
+        <v>0.002858505550361955</v>
       </c>
       <c r="DA7" t="n">
-        <v>-0</v>
+        <v>0.0546092542740864</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.004983512919935163</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.03714933187543883</v>
+        <v>-0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.01221774180187424</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.01187025228393425</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0</v>
+        <v>0.07270909583350729</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.01254732738101636</v>
+        <v>-0.01725989780393908</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0</v>
+        <v>0.005452412780540087</v>
       </c>
       <c r="DK7" t="n">
-        <v>-0.005597395826769086</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.02751651474331706</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.02989548832981614</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.01591904422610258</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>0.02975168509669514</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.06987199817986692</v>
+        <v>0.016942381946406</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>-0.02395800829112853</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.03962357924399464</v>
+        <v>-0</v>
       </c>
       <c r="DU7" t="n">
         <v>0</v>
@@ -4227,25 +4227,25 @@
         <v>-0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.02158383823153597</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>0.01547217220507177</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.03603799556354095</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0.0003033135218409532</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.01152321530334075</v>
+        <v>-0.03729696935685564</v>
       </c>
       <c r="EB7" t="n">
-        <v>0</v>
+        <v>-0.004443582272796644</v>
       </c>
       <c r="EC7" t="n">
-        <v>-0.001905115659905834</v>
+        <v>0</v>
       </c>
       <c r="ED7" t="n">
         <v>-0</v>
@@ -4254,174 +4254,174 @@
         <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0.2233654427979116</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.09215359024793898</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.02637163935006279</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0</v>
+        <v>0.0357190691668179</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.04576772468940552</v>
+        <v>0.03803058930497912</v>
       </c>
       <c r="EK7" t="n">
-        <v>0</v>
+        <v>0.01388623117169927</v>
       </c>
       <c r="EL7" t="n">
-        <v>-0.05604626240730771</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
         <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0.02229011225304468</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.03423827687995525</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.01457171181424556</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>0.005051869266449025</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.06299492461103329</v>
+        <v>0.00201055681616478</v>
       </c>
       <c r="ET7" t="n">
-        <v>-0</v>
+        <v>0.07528214501248236</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.01047087778472009</v>
+        <v>0</v>
       </c>
       <c r="EV7" t="n">
         <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0.1170445463685496</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.04506702486800113</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.02888061060174466</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0</v>
+        <v>0.00546366305083414</v>
       </c>
       <c r="FB7" t="n">
-        <v>-0.01590630979495615</v>
+        <v>0.01438115218192496</v>
       </c>
       <c r="FC7" t="n">
-        <v>-0</v>
+        <v>0.04543062448445263</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.005573282653237983</v>
+        <v>0</v>
       </c>
       <c r="FE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF7" t="n">
         <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0.1241435988705478</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>0.04039766155185378</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.0479731657925587</v>
+        <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0</v>
+        <v>0.02983183999575903</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.08298941651262084</v>
+        <v>-0.0007851676876486605</v>
       </c>
       <c r="FL7" t="n">
-        <v>0</v>
+        <v>0.01433026219893621</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.04760064186190605</v>
+        <v>-0</v>
       </c>
       <c r="FN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0.0174776602206321</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>0.008472526443757575</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.003675844968982218</v>
+        <v>0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0</v>
+        <v>0.009498651053461057</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.0008623544417328313</v>
+        <v>0.004007978858819655</v>
       </c>
       <c r="FU7" t="n">
-        <v>0</v>
+        <v>-0.0006667495878353233</v>
       </c>
       <c r="FV7" t="n">
-        <v>-0.01914915093195551</v>
+        <v>0</v>
       </c>
       <c r="FW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.1085641869701146</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>-0.03059570853169198</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.02940805878948811</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.02431450821081933</v>
       </c>
       <c r="GC7" t="n">
         <v>-0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>0.00280911641239717</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.02643797966314804</v>
+        <v>0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -4445,10 +4445,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -4499,10 +4499,10 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -4526,10 +4526,10 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -4553,10 +4553,10 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
@@ -4580,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
@@ -4607,10 +4607,10 @@
         <v>0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
@@ -4634,10 +4634,10 @@
         <v>0</v>
       </c>
       <c r="BU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -4661,10 +4661,10 @@
         <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
@@ -4688,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
@@ -4742,10 +4742,10 @@
         <v>0</v>
       </c>
       <c r="DE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
@@ -4769,10 +4769,10 @@
         <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
@@ -4823,10 +4823,10 @@
         <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
@@ -4850,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
@@ -4877,10 +4877,10 @@
         <v>0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
@@ -4904,10 +4904,10 @@
         <v>0</v>
       </c>
       <c r="FG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
@@ -4931,10 +4931,10 @@
         <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR8" t="n">
         <v>0</v>
@@ -4987,22 +4987,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.2547407029159295</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0.6366712051656227</v>
       </c>
       <c r="C9" t="n">
-        <v>0.384997613981202</v>
+        <v>-0</v>
       </c>
       <c r="D9" t="n">
         <v>-0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.178252921414955</v>
+        <v>0.08697509212496833</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.9845505032661335</v>
       </c>
       <c r="G9" t="n">
         <v>-0</v>
@@ -5011,55 +5011,55 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0958520205815</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.2041022886760888</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2791334708096491</v>
+        <v>-0</v>
       </c>
       <c r="M9" t="n">
         <v>-0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.006510657791683497</v>
+        <v>-0.07967963966601621</v>
       </c>
       <c r="O9" t="n">
-        <v>-0</v>
+        <v>0.5597213971528552</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.006335992473180733</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>-0.08715578462065252</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1147734104323958</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>-0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1570473263804979</v>
+        <v>0.1128410981611434</v>
       </c>
       <c r="X9" t="n">
-        <v>-0</v>
+        <v>0.02691143437295237</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -5068,103 +5068,103 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.007641725225792238</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0.2329839477389476</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.01056519440700815</v>
+        <v>-0</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.1689583327785833</v>
+        <v>-0.01763307552341737</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>0.1836191853288344</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0.08406423943572121</v>
+        <v>-0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>-0.07512987684999103</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.06707699340842818</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.005480594867814097</v>
+        <v>-0.135831083578605</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>0.2797066560146976</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
         <v>-0</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0.1506993888964686</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>-0.3741165585892315</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.2759869231331502</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.01215414697913597</v>
+        <v>0.356610395667373</v>
       </c>
       <c r="AY9" t="n">
-        <v>-0</v>
+        <v>0.9361587589155737</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0.06844207655628726</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>-0.4424338738470506</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.1511965974766128</v>
+        <v>-0</v>
       </c>
       <c r="BF9" t="n">
         <v>-0</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.2419473086491224</v>
+        <v>0.1384431771571384</v>
       </c>
       <c r="BH9" t="n">
-        <v>0</v>
+        <v>0.1945064143017782</v>
       </c>
       <c r="BI9" t="n">
         <v>-0</v>
@@ -5173,82 +5173,82 @@
         <v>-0</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.05790394266817345</v>
+        <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0</v>
+        <v>-0.1234283867715481</v>
       </c>
       <c r="BN9" t="n">
-        <v>-0.08826533150285792</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
         <v>0</v>
       </c>
       <c r="BP9" t="n">
-        <v>-0.1729980349466951</v>
+        <v>-0.1181142808420209</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>0.01576618077189797</v>
       </c>
       <c r="BR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS9" t="n">
         <v>-0</v>
       </c>
       <c r="BT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>-0.1355192299394692</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0</v>
+        <v>-0.1934659202605951</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.1249360064609266</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
         <v>-0</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.07939154490728979</v>
+        <v>0.08962884748241209</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>0.3651984907511022</v>
       </c>
       <c r="CA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.1089904207079946</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>0.1955823356127975</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0.08654864146884539</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.0182122475404659</v>
+        <v>-0.00816970540163724</v>
       </c>
       <c r="CI9" t="n">
-        <v>-0</v>
+        <v>-0.1995026485597582</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK9" t="n">
         <v>-0</v>
@@ -5257,25 +5257,25 @@
         <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.01533172999181656</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>0.01797619952919976</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.02271364198106992</v>
+        <v>-0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.06986820284082082</v>
+        <v>-0.2259606775065933</v>
       </c>
       <c r="CR9" t="n">
-        <v>0</v>
+        <v>0.1226291382239544</v>
       </c>
       <c r="CS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT9" t="n">
         <v>0</v>
@@ -5284,22 +5284,22 @@
         <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.1022287828576896</v>
+        <v>-0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>0.1636802209639074</v>
       </c>
       <c r="CX9" t="n">
-        <v>-0.07722476089689705</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.05585613657870021</v>
+        <v>-0.05765584815094123</v>
       </c>
       <c r="DA9" t="n">
-        <v>0</v>
+        <v>-0.234270734790426</v>
       </c>
       <c r="DB9" t="n">
         <v>-0</v>
@@ -5308,109 +5308,109 @@
         <v>0</v>
       </c>
       <c r="DD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.0006485029321043593</v>
+        <v>-0</v>
       </c>
       <c r="DF9" t="n">
-        <v>-0</v>
+        <v>-0.01350735563069386</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0.01252525651592604</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.0235645458731594</v>
+        <v>-0.2700888201685094</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0</v>
+        <v>0.03526955508469724</v>
       </c>
       <c r="DK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
         <v>-0</v>
       </c>
       <c r="DM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.05922708422264936</v>
+        <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>-0</v>
+        <v>0.1382643363050792</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.07694097012408922</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
         <v>0</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.04708548961232226</v>
+        <v>0.1018153573042857</v>
       </c>
       <c r="DS9" t="n">
-        <v>0</v>
+        <v>-0.06027366733264448</v>
       </c>
       <c r="DT9" t="n">
         <v>-0</v>
       </c>
       <c r="DU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV9" t="n">
         <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>-0.01287838648696307</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.1310266696181392</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.006926521700263983</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.0242273414588959</v>
+        <v>0.3027254627391702</v>
       </c>
       <c r="EB9" t="n">
-        <v>0</v>
+        <v>-0.1202720083068612</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>0.1373841226858495</v>
+        <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0</v>
+        <v>0.08451005182699307</v>
       </c>
       <c r="EH9" t="n">
-        <v>-0.1189999829531616</v>
+        <v>-0</v>
       </c>
       <c r="EI9" t="n">
         <v>-0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.02761061817871401</v>
+        <v>-0.1280852604447768</v>
       </c>
       <c r="EK9" t="n">
-        <v>-0</v>
+        <v>-0.1644445508303873</v>
       </c>
       <c r="EL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM9" t="n">
         <v>-0</v>
@@ -5419,22 +5419,22 @@
         <v>0</v>
       </c>
       <c r="EO9" t="n">
-        <v>0.02969380110351591</v>
+        <v>-0</v>
       </c>
       <c r="EP9" t="n">
-        <v>-0</v>
+        <v>0.1665701240754379</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.08796483112020045</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
         <v>-0</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.02376025186371043</v>
+        <v>0.08792102926841404</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>-0.00308022753749505</v>
       </c>
       <c r="EU9" t="n">
         <v>0</v>
@@ -5443,25 +5443,25 @@
         <v>-0</v>
       </c>
       <c r="EW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0.104381102670847</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>-0</v>
+        <v>0.177007614638068</v>
       </c>
       <c r="EZ9" t="n">
-        <v>-0.07132511043535669</v>
+        <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.03574280159503117</v>
+        <v>-0.05603850867091844</v>
       </c>
       <c r="FC9" t="n">
-        <v>-0</v>
+        <v>-0.2370799297251215</v>
       </c>
       <c r="FD9" t="n">
         <v>0</v>
@@ -5470,25 +5470,25 @@
         <v>-0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.06144492507846006</v>
+        <v>-0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>0.0140750532655642</v>
       </c>
       <c r="FI9" t="n">
-        <v>-0.08811918547272821</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
         <v>0</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.06485182052395687</v>
+        <v>0.02253241486306879</v>
       </c>
       <c r="FL9" t="n">
-        <v>-0</v>
+        <v>-0.252454003355767</v>
       </c>
       <c r="FM9" t="n">
         <v>0</v>
@@ -5497,43 +5497,43 @@
         <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.02940888359768755</v>
+        <v>-0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>-0</v>
+        <v>0.0006296877171737042</v>
       </c>
       <c r="FR9" t="n">
-        <v>-0.06029546356024383</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
         <v>0</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.03455969739476616</v>
+        <v>-0.1505408508105391</v>
       </c>
       <c r="FU9" t="n">
-        <v>-0</v>
+        <v>-0.3471022743025425</v>
       </c>
       <c r="FV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
         <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.0110536726075316</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>0.1318251794098035</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.09580216226352434</v>
+        <v>0</v>
       </c>
       <c r="GB9" t="n">
         <v>0</v>
@@ -5542,7 +5542,7 @@
         <v>-0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>0.07958104312441333</v>
       </c>
       <c r="GE9" t="n">
         <v>0</v>
@@ -5551,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -5559,208 +5559,208 @@
         <v>-0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.1318740611932359</v>
       </c>
       <c r="C10" t="n">
-        <v>0.499818400321672</v>
+        <v>-0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02083422563491476</v>
+        <v>-0.005492943149031097</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-0.09237698915256519</v>
       </c>
       <c r="G10" t="n">
         <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2067551998092449</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.09435844624903741</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3916461414658689</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1388530139105902</v>
+        <v>-0.00387433263232507</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>-0.05231596628413955</v>
       </c>
       <c r="P10" t="n">
         <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1209463280504461</v>
+        <v>-0</v>
       </c>
       <c r="S10" t="n">
         <v>-0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.008302545337658861</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.01229214328664017</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.1112962621665702</v>
+        <v>-0.01636179756816476</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>-0.01620105783673412</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.04196602852485753</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0</v>
+        <v>0.007877545156851748</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.1034261709600014</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
         <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.05621686901246332</v>
+        <v>0.01256317973892767</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0</v>
+        <v>0.01658887695230819</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.1433887065103622</v>
+        <v>-0</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.005307641575658446</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.1461107354876083</v>
+        <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.09167036454318009</v>
+        <v>-0.01050052098194327</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>-0.04321017063011174</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
         <v>-0</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0.01518818290119485</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.1082364385961864</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.2881568514934557</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
         <v>-0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.08011682986596487</v>
+        <v>0.008984154601010062</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0</v>
+        <v>-0.06027269610127131</v>
       </c>
       <c r="AZ10" t="n">
         <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB10" t="n">
-        <v>-0.1906126076089187</v>
+        <v>0</v>
       </c>
       <c r="BC10" t="n">
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.05150394732376543</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.218558807178745</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
         <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.0721267754199255</v>
+        <v>-0.02408309547370742</v>
       </c>
       <c r="BH10" t="n">
-        <v>0</v>
+        <v>-0.0588905221505984</v>
       </c>
       <c r="BI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.02572343955201126</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.04170675385584562</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0.09571571534397361</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>-0.1900345531927433</v>
+        <v>0.0149431797754241</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>0.01932360625396138</v>
       </c>
       <c r="BR10" t="n">
         <v>0</v>
@@ -5769,52 +5769,52 @@
         <v>-0</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.08373667396297055</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.05519751872298534</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.1843966477769533</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.09842727447627804</v>
+        <v>0.003424969247851455</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0</v>
+        <v>-0.02183011723430995</v>
       </c>
       <c r="CA10" t="n">
         <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC10" t="n">
-        <v>-0.1371786424521959</v>
+        <v>0</v>
       </c>
       <c r="CD10" t="n">
         <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0</v>
+        <v>-0.02931573640885643</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0.123915051895926</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.07407577359487151</v>
+        <v>-0.002823752722626449</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0</v>
+        <v>0.02455424238017028</v>
       </c>
       <c r="CJ10" t="n">
         <v>0</v>
@@ -5823,25 +5823,25 @@
         <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.06986043651446058</v>
+        <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0</v>
+        <v>-0.00837748048736099</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.02103108141659143</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.02873013721024456</v>
+        <v>-0.003916928761573623</v>
       </c>
       <c r="CR10" t="n">
-        <v>0</v>
+        <v>-0.008731407320691024</v>
       </c>
       <c r="CS10" t="n">
         <v>-0</v>
@@ -5850,25 +5850,25 @@
         <v>0</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0.03589445039386609</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
         <v>-0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.02153164021549675</v>
       </c>
       <c r="CX10" t="n">
-        <v>-0.1014087406521874</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.02412940757379566</v>
+        <v>-0.002003978309657736</v>
       </c>
       <c r="DA10" t="n">
-        <v>0</v>
+        <v>0.0303857761322393</v>
       </c>
       <c r="DB10" t="n">
         <v>-0</v>
@@ -5877,25 +5877,25 @@
         <v>-0</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.04913450975104208</v>
+        <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>0.004146839197418542</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.01065703681701716</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.0146507738330666</v>
+        <v>0.007833888145544933</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0</v>
+        <v>0.0131833482100878</v>
       </c>
       <c r="DK10" t="n">
         <v>0</v>
@@ -5904,25 +5904,25 @@
         <v>0</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.004540116574735584</v>
+        <v>0</v>
       </c>
       <c r="DN10" t="n">
         <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0</v>
+        <v>-0.01266161839795827</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.01034097328020523</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
         <v>-0</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.08227534684890639</v>
+        <v>0.008747440187639103</v>
       </c>
       <c r="DS10" t="n">
-        <v>0</v>
+        <v>0.004134410553009287</v>
       </c>
       <c r="DT10" t="n">
         <v>0</v>
@@ -5931,25 +5931,25 @@
         <v>0</v>
       </c>
       <c r="DV10" t="n">
-        <v>-0.02928545096558088</v>
+        <v>0</v>
       </c>
       <c r="DW10" t="n">
         <v>-0</v>
       </c>
       <c r="DX10" t="n">
-        <v>0</v>
+        <v>-0.03638192622515123</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0.0657806175248699</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
         <v>-0</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.02691664521979637</v>
+        <v>0.00969916336586552</v>
       </c>
       <c r="EB10" t="n">
-        <v>0</v>
+        <v>-0.01868138726598854</v>
       </c>
       <c r="EC10" t="n">
         <v>-0</v>
@@ -5958,79 +5958,79 @@
         <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0.03067520256685059</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.02008322058823762</v>
       </c>
       <c r="EH10" t="n">
-        <v>-0.1102957435646605</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.1344867519673773</v>
+        <v>0.002968698146550201</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0</v>
+        <v>0.01589273350073591</v>
       </c>
       <c r="EL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
         <v>-0</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.04960187513493262</v>
+        <v>-0</v>
       </c>
       <c r="EO10" t="n">
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>0.006071964025114669</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0.05153263596434915</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>-0.003254807592758859</v>
+        <v>-0.003405872680952868</v>
       </c>
       <c r="ET10" t="n">
-        <v>-0</v>
+        <v>0.003510917546484083</v>
       </c>
       <c r="EU10" t="n">
         <v>0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.1532051041716457</v>
+        <v>0</v>
       </c>
       <c r="EX10" t="n">
         <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.02109768676030957</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0.1156553087106213</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>-0.03820805599728518</v>
+        <v>0.001335814361383439</v>
       </c>
       <c r="FC10" t="n">
-        <v>0</v>
+        <v>0.03096725298424894</v>
       </c>
       <c r="FD10" t="n">
         <v>0</v>
@@ -6039,108 +6039,108 @@
         <v>0</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.09063205185821992</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
         <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>0.004398873560933414</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0.1746739085912305</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.04172213436754835</v>
+        <v>-0.0162621825293441</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0</v>
+        <v>0.02933338994252381</v>
       </c>
       <c r="FM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0.001392703151239217</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
         <v>-0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.02071820846187045</v>
       </c>
       <c r="FR10" t="n">
-        <v>-0.04683777547920499</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.1674876553102714</v>
+        <v>0.02281204601385389</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0</v>
+        <v>-0.0008419326948454599</v>
       </c>
       <c r="FV10" t="n">
         <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0.01117653082884152</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0</v>
+        <v>-0.01337342822206208</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.1027537121615984</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
         <v>-0</v>
       </c>
       <c r="GC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0</v>
+        <v>-0.02628249890962805</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.151304068903896</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3871312444336039</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>-0.4203970612742267</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.06344695191060848</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.2381725178332416</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.05144553893454078</v>
+        <v>0.273264130438886</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6149,25 +6149,25 @@
         <v>-0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3444517912204599</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0.3101477086637015</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.06994892660363337</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.2222121562054488</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.163913134084197</v>
+        <v>0.2696280773763496</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -6179,19 +6179,19 @@
         <v>-0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03928901258969696</v>
+        <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0</v>
+        <v>-0.1284318551118342</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.05242855111050398</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>0.01904545226727132</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.1969283615910775</v>
+        <v>-0.07335317270094205</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -6200,82 +6200,82 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>-0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.007390731970505099</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0</v>
+        <v>-0.1704161127400031</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.04349616708520933</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0</v>
+        <v>-0.05715818951733054</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.03644496262501508</v>
+        <v>-0.02356619343079017</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.09537310650966933</v>
+        <v>-0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>-0.04896102394264443</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0.01422810966688214</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>0.04477912547546925</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.04096269448261442</v>
+        <v>0.07869489294520983</v>
       </c>
       <c r="AP11" t="n">
         <v>-0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.2655379851649364</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>-0.3401131025108767</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0.06494423914485117</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>-0</v>
+        <v>0.06970047537053838</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.02456577403719579</v>
+        <v>0.008627081229880568</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ11" t="n">
         <v>-0</v>
@@ -6287,49 +6287,49 @@
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0803003237887492</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>0.008829065649101577</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0.02129023881109552</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>0.2161857308369209</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.005803469402355173</v>
+        <v>0.3428484569850302</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK11" t="n">
         <v>-0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0.03332180857156875</v>
+        <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>-0.09089568020081853</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.02505193600474695</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0.02630949504052616</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.1180985662155973</v>
+        <v>-0.09840232868604756</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR11" t="n">
         <v>-0</v>
@@ -6341,106 +6341,106 @@
         <v>0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.2259385476103444</v>
+        <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>-0.2637835255097385</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0.03785927646174334</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0</v>
+        <v>0.005855053553077499</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.01168258754299898</v>
+        <v>0.04968715169096643</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC11" t="n">
         <v>-0</v>
       </c>
       <c r="CD11" t="n">
-        <v>-0.1019262029365754</v>
+        <v>-0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>0.0994917647820658</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.01036449925195648</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>-0.05981657916910861</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.02730706983628107</v>
+        <v>-0.001654412517811515</v>
       </c>
       <c r="CI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL11" t="n">
         <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0.0224512637028818</v>
+        <v>-0</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0</v>
+        <v>0.03904433531414777</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.02403796386895549</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>0</v>
+        <v>-0.08836504795522895</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.04368830248569584</v>
+        <v>0.08395989053667714</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
       </c>
       <c r="CT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>-0.08974690822538518</v>
+        <v>0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0</v>
+        <v>0.09909492014780513</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.01644331598327504</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>0</v>
+        <v>-0.08172709137269067</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.02147829627561092</v>
+        <v>-0.01289019254973816</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC11" t="n">
         <v>-0</v>
@@ -6449,19 +6449,19 @@
         <v>-0</v>
       </c>
       <c r="DE11" t="n">
-        <v>-0.004443390347112116</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>0.1913335792505671</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.02120670130218306</v>
+        <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0.09039708995659418</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.0005301304705068586</v>
+        <v>-0.01612744328293991</v>
       </c>
       <c r="DJ11" t="n">
         <v>-0</v>
@@ -6476,19 +6476,19 @@
         <v>-0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.01898853407111185</v>
+        <v>0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>0.05315386549332303</v>
       </c>
       <c r="DP11" t="n">
-        <v>-0.02427113755673491</v>
+        <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0</v>
+        <v>0.03945751839556569</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.008337033379570657</v>
+        <v>0.07524115673016218</v>
       </c>
       <c r="DS11" t="n">
         <v>-0</v>
@@ -6497,25 +6497,25 @@
         <v>0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
         <v>-0</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.004038708907571299</v>
+        <v>0</v>
       </c>
       <c r="DX11" t="n">
-        <v>-0</v>
+        <v>0.1090832463548563</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0.01528667365907681</v>
+        <v>-0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0</v>
+        <v>-0.1120631691043394</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.04859289338663433</v>
+        <v>0.04292370431063442</v>
       </c>
       <c r="EB11" t="n">
         <v>0</v>
@@ -6527,22 +6527,22 @@
         <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
-        <v>-0.1450506787626817</v>
+        <v>-0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>0.06261320051121112</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.0134455087270374</v>
+        <v>-0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0</v>
+        <v>-0.05128472242952131</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.05393488373424411</v>
+        <v>-0.1280042182459941</v>
       </c>
       <c r="EK11" t="n">
         <v>0</v>
@@ -6554,22 +6554,22 @@
         <v>0</v>
       </c>
       <c r="EN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO11" t="n">
-        <v>-0.0448113446198834</v>
+        <v>-0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>0.01090740335426707</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0.03059540175351775</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>0.03305469095304838</v>
       </c>
       <c r="ES11" t="n">
-        <v>-0.0201027905247947</v>
+        <v>0.02963720384945741</v>
       </c>
       <c r="ET11" t="n">
         <v>-0</v>
@@ -6584,22 +6584,22 @@
         <v>0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0.0884818423641347</v>
+        <v>-0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>0.1021779611874328</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.01055918330534911</v>
+        <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>0</v>
+        <v>-0.07113789239965995</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.01315013591499034</v>
+        <v>-0.01393453093228759</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD11" t="n">
         <v>-0</v>
@@ -6608,79 +6608,79 @@
         <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.1028660110977846</v>
+        <v>-0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0</v>
+        <v>0.07244239177882095</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.02429825928076642</v>
+        <v>0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0</v>
+        <v>0.1034012052979759</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.03774074188891421</v>
+        <v>-0.05343306529002467</v>
       </c>
       <c r="FL11" t="n">
         <v>0</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO11" t="n">
         <v>-0</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.005940616013634922</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0</v>
+        <v>-0.01786479763664515</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.02058366019071309</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>-0</v>
+        <v>0.03866397923095361</v>
       </c>
       <c r="FT11" t="n">
-        <v>-0.01340513981259283</v>
+        <v>-0.003043364984106816</v>
       </c>
       <c r="FU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.07242946516497323</v>
+        <v>0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0</v>
+        <v>0.06642362777887707</v>
       </c>
       <c r="GA11" t="n">
-        <v>-0.03562243078220578</v>
+        <v>0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0</v>
+        <v>0.06278896293088311</v>
       </c>
       <c r="GC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE11" t="n">
         <v>0</v>
@@ -6694,157 +6694,157 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2644407000903667</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.4944175880602533</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.140383548955556</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03888133474879937</v>
+        <v>-0.1198894349094563</v>
       </c>
       <c r="F12" t="n">
-        <v>-0</v>
+        <v>-0.4544460008606231</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
         <v>-0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2444546254510327</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.4274607518904434</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.1416396614160426</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.07237771528084881</v>
+        <v>-0.04888874850773579</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>-0.4157528138401824</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
         <v>-0</v>
       </c>
       <c r="R12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01404228301288901</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0</v>
+        <v>0.04063933094066322</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.03993649905748393</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.0993790836723342</v>
+        <v>-0.08967454752124288</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0.01598316809495008</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01037313055485913</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>-0.02252847513618931</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.004609166492016547</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
         <v>-0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.0460382755078793</v>
+        <v>-0.008390708569729568</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>-0.03544500394326719</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.05427554150999982</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>0.08318877872611036</v>
       </c>
       <c r="AM12" t="n">
-        <v>-0.01672309222850446</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.03555306511048453</v>
+        <v>-0.0007077278191615895</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0</v>
+        <v>-0.08540701532056351</v>
       </c>
       <c r="AQ12" t="n">
         <v>-0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.1460701731158664</v>
+        <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.4218259438604975</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0.07524447145687044</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
         <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.01360360646447119</v>
+        <v>-0.06897385573744649</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>-0.2205919160920708</v>
       </c>
       <c r="AZ12" t="n">
         <v>-0</v>
@@ -6856,22 +6856,22 @@
         <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.0580443801369056</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.1099878069610339</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.05691937394088734</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
         <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.06994205162114447</v>
+        <v>-0.1555668212240102</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>-0.2031233903851091</v>
       </c>
       <c r="BI12" t="n">
         <v>0</v>
@@ -6880,52 +6880,52 @@
         <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0.01150158480263817</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.1451342674025795</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.04644679647099777</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.09927275775304692</v>
+        <v>-0.002556688646453596</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-0</v>
+        <v>0.0211355153587851</v>
       </c>
       <c r="BR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS12" t="n">
         <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.1373213821763355</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.2207219932939731</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0.03532023597514009</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
         <v>0</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.0122130385352283</v>
+        <v>-0.06717633274302381</v>
       </c>
       <c r="BZ12" t="n">
-        <v>-0</v>
+        <v>-0.129854641674758</v>
       </c>
       <c r="CA12" t="n">
         <v>-0</v>
@@ -6934,25 +6934,25 @@
         <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0.06788477473652596</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.08697241061607046</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.03386671973538954</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.005920694896473241</v>
+        <v>-0.005260933946613045</v>
       </c>
       <c r="CI12" t="n">
-        <v>0</v>
+        <v>0.1102993405917673</v>
       </c>
       <c r="CJ12" t="n">
         <v>-0</v>
@@ -6964,49 +6964,49 @@
         <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0.01145070283603392</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>-4.43257607350541e-05</v>
       </c>
       <c r="CO12" t="n">
-        <v>-0.005485118005352759</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
         <v>0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.04594904175091556</v>
+        <v>0.01466065102031537</v>
       </c>
       <c r="CR12" t="n">
-        <v>-0</v>
+        <v>-0.02412898156694127</v>
       </c>
       <c r="CS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT12" t="n">
         <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0.06005022880446361</v>
+        <v>-0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.0687753690642883</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.03734250032768984</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.01939043133490688</v>
+        <v>-0.001385798239291539</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0</v>
+        <v>0.1157981227674384</v>
       </c>
       <c r="DB12" t="n">
         <v>0</v>
@@ -7018,22 +7018,22 @@
         <v>-0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0.02948581839397218</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.04431739291869521</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.02792680718454284</v>
+        <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.01786544551262624</v>
+        <v>0.0469190519338525</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>0.0004228659813447472</v>
       </c>
       <c r="DK12" t="n">
         <v>0</v>
@@ -7042,106 +7042,106 @@
         <v>0</v>
       </c>
       <c r="DM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.01038744246551069</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>0.006641109162840441</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.01016640094877604</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.02490394261820529</v>
+        <v>0.03409219115504388</v>
       </c>
       <c r="DS12" t="n">
-        <v>-0</v>
+        <v>-0.007839961212285225</v>
       </c>
       <c r="DT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW12" t="n">
-        <v>-0.01094685947325825</v>
+        <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>-0.05630551712360807</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0.01951893401203639</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.01412053395346016</v>
+        <v>0.01739268735557954</v>
       </c>
       <c r="EB12" t="n">
-        <v>-0</v>
+        <v>0.05349210144062201</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE12" t="n">
         <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0.1045113174563342</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.1002099334802206</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.03822247990193594</v>
+        <v>0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.004739797953886641</v>
+        <v>0.02829821554655291</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>0.1234794527568776</v>
       </c>
       <c r="EL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0.04600633520303638</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>-0.03354367535041377</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.03848275811880133</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES12" t="n">
-        <v>-0.002333179704209135</v>
+        <v>-0.01138240262551658</v>
       </c>
       <c r="ET12" t="n">
-        <v>-0</v>
+        <v>0.07389758701291133</v>
       </c>
       <c r="EU12" t="n">
         <v>-0</v>
@@ -7150,25 +7150,25 @@
         <v>0</v>
       </c>
       <c r="EW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0.06251633040971741</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.06650577815978947</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.03230243494312827</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.008091513577594633</v>
+        <v>0.00686835868898876</v>
       </c>
       <c r="FC12" t="n">
-        <v>-0</v>
+        <v>0.1058259541203652</v>
       </c>
       <c r="FD12" t="n">
         <v>-0</v>
@@ -7180,79 +7180,79 @@
         <v>0</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.03512528275038281</v>
+        <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>-0.005797606991718213</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.03622616537246701</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
         <v>-0</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.02885094934601858</v>
+        <v>-0.008269053209006944</v>
       </c>
       <c r="FL12" t="n">
-        <v>0</v>
+        <v>0.05044232467575337</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.0002286114105878208</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0</v>
+        <v>0.005420703803291718</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.02508372829122206</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
         <v>-0</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.006673593416086556</v>
+        <v>-0.008628367138022312</v>
       </c>
       <c r="FU12" t="n">
-        <v>0</v>
+        <v>0.03001674149327355</v>
       </c>
       <c r="FV12" t="n">
         <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.03881912876419009</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>0.04279250744070507</v>
       </c>
       <c r="GA12" t="n">
-        <v>-0.01700266929431415</v>
+        <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC12" t="n">
         <v>0</v>
       </c>
       <c r="GD12" t="n">
-        <v>-0</v>
+        <v>-0.05313188342164341</v>
       </c>
       <c r="GE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF12" t="n">
         <v>-0</v>
@@ -7263,10 +7263,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -7290,10 +7290,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -7317,10 +7317,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -7344,10 +7344,10 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -7371,10 +7371,10 @@
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
@@ -7398,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV13" t="n">
         <v>0</v>
@@ -7425,10 +7425,10 @@
         <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE13" t="n">
         <v>0</v>
@@ -7452,10 +7452,10 @@
         <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
@@ -7479,10 +7479,10 @@
         <v>0</v>
       </c>
       <c r="BU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW13" t="n">
         <v>0</v>
@@ -7506,10 +7506,10 @@
         <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF13" t="n">
         <v>0</v>
@@ -7533,10 +7533,10 @@
         <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO13" t="n">
         <v>0</v>
@@ -7587,10 +7587,10 @@
         <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG13" t="n">
         <v>0</v>
@@ -7614,10 +7614,10 @@
         <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP13" t="n">
         <v>0</v>
@@ -7641,10 +7641,10 @@
         <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY13" t="n">
         <v>0</v>
@@ -7668,10 +7668,10 @@
         <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH13" t="n">
         <v>0</v>
@@ -7695,10 +7695,10 @@
         <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ13" t="n">
         <v>0</v>
@@ -7722,10 +7722,10 @@
         <v>0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ13" t="n">
         <v>0</v>
@@ -7832,10 +7832,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -7859,10 +7859,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -7913,10 +7913,10 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -7940,10 +7940,10 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -7967,10 +7967,10 @@
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
@@ -8048,10 +8048,10 @@
         <v>0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
@@ -8102,10 +8102,10 @@
         <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO14" t="n">
         <v>0</v>
@@ -8156,10 +8156,10 @@
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
@@ -8183,10 +8183,10 @@
         <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
@@ -8210,10 +8210,10 @@
         <v>0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
@@ -8237,10 +8237,10 @@
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
@@ -8264,10 +8264,10 @@
         <v>0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ14" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
@@ -8401,22 +8401,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2108844656191346</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>0.1465852228526663</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.06202371341921273</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04652277785513513</v>
+        <v>-0.07399542798630397</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0.0709790340585276</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -8428,133 +8428,133 @@
         <v>-0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1785434502842192</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>-0</v>
+        <v>0.1108856173884611</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.06842015522933373</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.02779289869420283</v>
+        <v>-0.04595669083434802</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>-0.06470193804116534</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>-0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.004028336479036446</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>0.01286623979709052</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.0211719142232543</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.05089798331686285</v>
+        <v>-0.006100835549428585</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>0.009342836230473214</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0112547887691876</v>
+        <v>-0</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0</v>
+        <v>-0.004928984544738137</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.006759493552045296</v>
+        <v>-0</v>
       </c>
       <c r="AE15" t="n">
         <v>-0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.03096747713257043</v>
+        <v>0.01258156439247423</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>0.01050107998378377</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.03319941922597087</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>0.009158633067053728</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.01618701468031808</v>
+        <v>-0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.01660888013868982</v>
+        <v>-0.009344143710511673</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0</v>
+        <v>-0.01452169277157193</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS15" t="n">
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.1086519217606245</v>
+        <v>-0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.1019198328055797</v>
       </c>
       <c r="AV15" t="n">
-        <v>-0.04587027033490666</v>
+        <v>-0</v>
       </c>
       <c r="AW15" t="n">
         <v>-0</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.001478461385411609</v>
+        <v>-0.02807047747016878</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>-0.02016552463268135</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA15" t="n">
         <v>-0</v>
@@ -8563,22 +8563,22 @@
         <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.02951136512167407</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>0.03040979956368515</v>
       </c>
       <c r="BE15" t="n">
-        <v>-0.01434738445103083</v>
+        <v>0</v>
       </c>
       <c r="BF15" t="n">
         <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.0417743503180299</v>
+        <v>-0.05200338909831748</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0</v>
+        <v>-0.06011200255662029</v>
       </c>
       <c r="BI15" t="n">
         <v>0</v>
@@ -8587,52 +8587,52 @@
         <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0.01610058874411508</v>
+        <v>-0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>0.03426528983123459</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.02224014358942724</v>
+        <v>-0</v>
       </c>
       <c r="BO15" t="n">
         <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.06037993588835995</v>
+        <v>0.01557273011220122</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>0.01534036555480199</v>
       </c>
       <c r="BR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT15" t="n">
         <v>-0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.09379543699617385</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>0.047368182566852</v>
       </c>
       <c r="BW15" t="n">
-        <v>-0.03162186937033978</v>
+        <v>0</v>
       </c>
       <c r="BX15" t="n">
         <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.01467568031001926</v>
+        <v>-0.01165554142871243</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0</v>
+        <v>-0.01167342535910132</v>
       </c>
       <c r="CA15" t="n">
         <v>-0</v>
@@ -8644,157 +8644,157 @@
         <v>-0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0.05153671998720061</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0.02434920044063748</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.0202893252576313</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.002310745274158589</v>
+        <v>0.006277110844750866</v>
       </c>
       <c r="CI15" t="n">
-        <v>0</v>
+        <v>0.01747917093761229</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL15" t="n">
         <v>0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0.01258561254520112</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>-0</v>
+        <v>0.0008711438210970087</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.003988335812924486</v>
+        <v>-0</v>
       </c>
       <c r="CP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.02859336985193011</v>
+        <v>-0.004870258777359961</v>
       </c>
       <c r="CR15" t="n">
-        <v>-0</v>
+        <v>-0.01055356244104783</v>
       </c>
       <c r="CS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU15" t="n">
         <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>-0.04819993254886063</v>
+        <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>-0</v>
+        <v>-0.01837875031968109</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.01994793739296669</v>
+        <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>-0.01373535036184261</v>
+        <v>0.005788378002291633</v>
       </c>
       <c r="DA15" t="n">
-        <v>-0</v>
+        <v>0.01825785415799794</v>
       </c>
       <c r="DB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD15" t="n">
         <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0.02999725786545435</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>-0.03055706956215015</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.02875157434644538</v>
+        <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.02956102803186164</v>
+        <v>0.04795676047248516</v>
       </c>
       <c r="DJ15" t="n">
-        <v>-0</v>
+        <v>0.01313787130993649</v>
       </c>
       <c r="DK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.004733889915508534</v>
+        <v>-0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0.004916013979101529</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.008054253978670224</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
         <v>0</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.01891962113321848</v>
+        <v>0.01919661233951572</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0</v>
+        <v>-0.007774198957988798</v>
       </c>
       <c r="DT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV15" t="n">
         <v>-0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0.01189857549571358</v>
+        <v>-0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>-0.02846097191678534</v>
       </c>
       <c r="DY15" t="n">
-        <v>-0.00539528414753775</v>
+        <v>0</v>
       </c>
       <c r="DZ15" t="n">
         <v>0</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.002837663964407863</v>
+        <v>0.01360604075316584</v>
       </c>
       <c r="EB15" t="n">
-        <v>-0</v>
+        <v>0.01789462456361692</v>
       </c>
       <c r="EC15" t="n">
         <v>-0</v>
@@ -8806,148 +8806,148 @@
         <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0.07553288947533092</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0.02911864151567194</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.01556433674537189</v>
+        <v>-0</v>
       </c>
       <c r="EI15" t="n">
         <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>-0.005011102065055525</v>
+        <v>0.008480714679931127</v>
       </c>
       <c r="EK15" t="n">
-        <v>0</v>
+        <v>0.01387669463880132</v>
       </c>
       <c r="EL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN15" t="n">
         <v>-0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0.02823512179827539</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0.01260822431150292</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.03699895694443955</v>
+        <v>0</v>
       </c>
       <c r="ER15" t="n">
         <v>0</v>
       </c>
       <c r="ES15" t="n">
-        <v>-0.001673309377715032</v>
+        <v>0.003845554478425642</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0</v>
+        <v>-0.01036215508293767</v>
       </c>
       <c r="EU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV15" t="n">
         <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0.04694984599408803</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0.01930000018848992</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.01957100129804638</v>
+        <v>0</v>
       </c>
       <c r="FA15" t="n">
         <v>0</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0.007434630854454969</v>
+        <v>0.008683513147103507</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0</v>
+        <v>0.02122334911163535</v>
       </c>
       <c r="FD15" t="n">
         <v>-0</v>
       </c>
       <c r="FE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF15" t="n">
         <v>0</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.03394447486563531</v>
+        <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
+        <v>-0.01604457638516874</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.01173657506427955</v>
+        <v>-0</v>
       </c>
       <c r="FJ15" t="n">
         <v>-0</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.02345968195898548</v>
+        <v>0.01197799151554985</v>
       </c>
       <c r="FL15" t="n">
-        <v>0</v>
+        <v>0.01949669269291303</v>
       </c>
       <c r="FM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.0001857647279689797</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0</v>
+        <v>0.0001186836000044023</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.001599883914205675</v>
+        <v>-0</v>
       </c>
       <c r="FS15" t="n">
         <v>-0</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.001219685678522032</v>
+        <v>-0.001333692896077636</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0</v>
+        <v>0.0182015524807463</v>
       </c>
       <c r="FV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
         <v>0</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.01359514208915636</v>
+        <v>-0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>-0</v>
+        <v>0.0001952809621877177</v>
       </c>
       <c r="GA15" t="n">
-        <v>-0.008906735811767527</v>
+        <v>-0</v>
       </c>
       <c r="GB15" t="n">
         <v>-0</v>
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="GD15" t="n">
-        <v>0</v>
+        <v>-0.00411468136418883</v>
       </c>
       <c r="GE15" t="n">
         <v>0</v>
@@ -8970,103 +8970,103 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>-0.8502837428435279</v>
       </c>
       <c r="B16" t="n">
         <v>-0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3292179365749854</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1293089479580077</v>
+        <v>-0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.09972499416197705</v>
+        <v>-0.05655871633976203</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.687231382981478</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-0.4323332666266763</v>
       </c>
       <c r="K16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3575542523748818</v>
+        <v>-0</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.08098401933601222</v>
+        <v>-0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.06057969494785199</v>
+        <v>-0.1602354216972428</v>
       </c>
       <c r="O16" t="n">
-        <v>-0</v>
+        <v>1.278894506970289</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-0.1922866802710226</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04065611681664406</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0.03664153255665673</v>
+        <v>-0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1310167477889283</v>
+        <v>0.5082619239813235</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.1915377317545275</v>
       </c>
       <c r="Y16" t="n">
         <v>-0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0</v>
+        <v>-0.2231365369000803</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.02208512452588059</v>
+        <v>-0</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.04515877003174518</v>
+        <v>-0</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.1221291863680247</v>
+        <v>0.1062409241909324</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>0.09126751785465746</v>
       </c>
       <c r="AH16" t="n">
         <v>0</v>
@@ -9075,25 +9075,25 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>-0</v>
+        <v>-0.1899579490643113</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.05165388935388773</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.01233315678048462</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.06746180269888394</v>
+        <v>-0.01888882982903044</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>0.06123801101473281</v>
       </c>
       <c r="AQ16" t="n">
         <v>0</v>
@@ -9102,25 +9102,25 @@
         <v>-0</v>
       </c>
       <c r="AS16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>-0</v>
+        <v>-0.6097803001632807</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.1380060163892509</v>
+        <v>0</v>
       </c>
       <c r="AW16" t="n">
-        <v>-0.009531342683295505</v>
+        <v>-0</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.07893466341581705</v>
+        <v>0.6201411756746733</v>
       </c>
       <c r="AY16" t="n">
-        <v>-0</v>
+        <v>1.052831566551708</v>
       </c>
       <c r="AZ16" t="n">
         <v>0</v>
@@ -9132,25 +9132,25 @@
         <v>-0</v>
       </c>
       <c r="BC16" t="n">
-        <v>-0</v>
+        <v>-0.2060866365751479</v>
       </c>
       <c r="BD16" t="n">
         <v>-0</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.06993223790411202</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>-0.0714821300898819</v>
+        <v>-0</v>
       </c>
       <c r="BG16" t="n">
-        <v>-0.1391649256087515</v>
+        <v>-0.1354846950335468</v>
       </c>
       <c r="BH16" t="n">
-        <v>0</v>
+        <v>0.1952686044250534</v>
       </c>
       <c r="BI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ16" t="n">
         <v>0</v>
@@ -9159,49 +9159,49 @@
         <v>0</v>
       </c>
       <c r="BL16" t="n">
-        <v>-0</v>
+        <v>-0.03870840396197738</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN16" t="n">
-        <v>-0.07826936054150546</v>
+        <v>0</v>
       </c>
       <c r="BO16" t="n">
-        <v>-0.00895151709590186</v>
+        <v>-0</v>
       </c>
       <c r="BP16" t="n">
-        <v>-0.09997265344388476</v>
+        <v>0.06466038365058653</v>
       </c>
       <c r="BQ16" t="n">
-        <v>-0</v>
+        <v>0.1143795097060027</v>
       </c>
       <c r="BR16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS16" t="n">
         <v>-0</v>
       </c>
       <c r="BT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU16" t="n">
-        <v>-0</v>
+        <v>-0.4089227988679115</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.08142512713378978</v>
+        <v>0</v>
       </c>
       <c r="BX16" t="n">
-        <v>-0.007420177241509984</v>
+        <v>-0</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.02434723299462845</v>
+        <v>0.3257989605731144</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0</v>
+        <v>0.6145798994091752</v>
       </c>
       <c r="CA16" t="n">
         <v>-0</v>
@@ -9213,184 +9213,184 @@
         <v>-0</v>
       </c>
       <c r="CD16" t="n">
-        <v>-0</v>
+        <v>0.2339331298305126</v>
       </c>
       <c r="CE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF16" t="n">
-        <v>-0.06267267353209802</v>
+        <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.05190861697921751</v>
+        <v>-0</v>
       </c>
       <c r="CH16" t="n">
-        <v>-0.01466137970097844</v>
+        <v>-0.03677137526617377</v>
       </c>
       <c r="CI16" t="n">
-        <v>-0</v>
+        <v>-0.3353032623842591</v>
       </c>
       <c r="CJ16" t="n">
         <v>-0</v>
       </c>
       <c r="CK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL16" t="n">
         <v>-0</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0</v>
+        <v>-0.01918928072767162</v>
       </c>
       <c r="CN16" t="n">
         <v>0</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.0566280848381512</v>
+        <v>0</v>
       </c>
       <c r="CP16" t="n">
-        <v>-0.02083911008794289</v>
+        <v>-0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>-0.03345545608796653</v>
+        <v>-0.5706829987925043</v>
       </c>
       <c r="CR16" t="n">
-        <v>-0</v>
+        <v>-0.08236883473748149</v>
       </c>
       <c r="CS16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU16" t="n">
         <v>0</v>
       </c>
       <c r="CV16" t="n">
-        <v>0</v>
+        <v>0.2203005068442297</v>
       </c>
       <c r="CW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CX16" t="n">
-        <v>-0.05241451429155598</v>
+        <v>-0</v>
       </c>
       <c r="CY16" t="n">
-        <v>0.04280321959447272</v>
+        <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>-0.002535549624520029</v>
+        <v>-0.03393527105203356</v>
       </c>
       <c r="DA16" t="n">
-        <v>0</v>
+        <v>-0.3184503568692622</v>
       </c>
       <c r="DB16" t="n">
         <v>0</v>
       </c>
       <c r="DC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE16" t="n">
-        <v>-0</v>
+        <v>-0.001021463966942377</v>
       </c>
       <c r="DF16" t="n">
         <v>-0</v>
       </c>
       <c r="DG16" t="n">
-        <v>-0.03638414162735421</v>
+        <v>-0</v>
       </c>
       <c r="DH16" t="n">
-        <v>0.002775660463801748</v>
+        <v>0</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.0497219164817222</v>
+        <v>-0.4784050070619013</v>
       </c>
       <c r="DJ16" t="n">
-        <v>-0</v>
+        <v>-0.04168057656363482</v>
       </c>
       <c r="DK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL16" t="n">
         <v>-0</v>
       </c>
       <c r="DM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN16" t="n">
-        <v>-0</v>
+        <v>0.1183995626040507</v>
       </c>
       <c r="DO16" t="n">
         <v>-0</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.02369186045961704</v>
+        <v>-0</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0.03403568521712164</v>
+        <v>0</v>
       </c>
       <c r="DR16" t="n">
-        <v>-0.1088166732208287</v>
+        <v>-0.1265712080371372</v>
       </c>
       <c r="DS16" t="n">
-        <v>-0</v>
+        <v>-0.09133203575488023</v>
       </c>
       <c r="DT16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV16" t="n">
         <v>0</v>
       </c>
       <c r="DW16" t="n">
-        <v>-0</v>
+        <v>0.05651170388601569</v>
       </c>
       <c r="DX16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY16" t="n">
-        <v>-0.02968182898603221</v>
+        <v>0</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0.0315736849678314</v>
+        <v>0</v>
       </c>
       <c r="EA16" t="n">
-        <v>-0.04730712861535543</v>
+        <v>0.02092785148218939</v>
       </c>
       <c r="EB16" t="n">
-        <v>0</v>
+        <v>-0.4458962471348428</v>
       </c>
       <c r="EC16" t="n">
         <v>0</v>
       </c>
       <c r="ED16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE16" t="n">
         <v>-0</v>
       </c>
       <c r="EF16" t="n">
-        <v>-0</v>
+        <v>0.150650987458159</v>
       </c>
       <c r="EG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH16" t="n">
-        <v>-0.08635563279635448</v>
+        <v>-0</v>
       </c>
       <c r="EI16" t="n">
-        <v>0.08712655826211647</v>
+        <v>-0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.09546846060398953</v>
+        <v>0.1534375046047704</v>
       </c>
       <c r="EK16" t="n">
-        <v>-0</v>
+        <v>-0.2033266677291174</v>
       </c>
       <c r="EL16" t="n">
         <v>-0</v>
@@ -9399,142 +9399,142 @@
         <v>-0</v>
       </c>
       <c r="EN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO16" t="n">
-        <v>-0</v>
+        <v>0.08454460904624655</v>
       </c>
       <c r="EP16" t="n">
         <v>-0</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.0008320629275129682</v>
+        <v>0</v>
       </c>
       <c r="ER16" t="n">
-        <v>-0.02379423271603591</v>
+        <v>-0</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.02383201822831657</v>
+        <v>-0.3250134762032604</v>
       </c>
       <c r="ET16" t="n">
-        <v>0</v>
+        <v>-0.06627756881633352</v>
       </c>
       <c r="EU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV16" t="n">
         <v>-0</v>
       </c>
       <c r="EW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX16" t="n">
-        <v>-0</v>
+        <v>0.187822665324337</v>
       </c>
       <c r="EY16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ16" t="n">
-        <v>-0.05616717179203592</v>
+        <v>0</v>
       </c>
       <c r="FA16" t="n">
-        <v>0.05421207175174802</v>
+        <v>-0</v>
       </c>
       <c r="FB16" t="n">
-        <v>-0.006175617363294176</v>
+        <v>-0.08804884683926674</v>
       </c>
       <c r="FC16" t="n">
-        <v>-0</v>
+        <v>-0.2809320706643329</v>
       </c>
       <c r="FD16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG16" t="n">
-        <v>-0</v>
+        <v>-0.09838211950112487</v>
       </c>
       <c r="FH16" t="n">
         <v>0</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.06684000888708461</v>
+        <v>-0</v>
       </c>
       <c r="FJ16" t="n">
-        <v>-0.0447244555050378</v>
+        <v>-0</v>
       </c>
       <c r="FK16" t="n">
-        <v>-0.01003960867012828</v>
+        <v>0.08654835641166246</v>
       </c>
       <c r="FL16" t="n">
-        <v>-0</v>
+        <v>-0.003487209481427227</v>
       </c>
       <c r="FM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO16" t="n">
         <v>0</v>
       </c>
       <c r="FP16" t="n">
-        <v>-0</v>
+        <v>0.02852771258249955</v>
       </c>
       <c r="FQ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FR16" t="n">
-        <v>-0.01032593524175538</v>
+        <v>-0</v>
       </c>
       <c r="FS16" t="n">
-        <v>-0.004142566747547008</v>
+        <v>-0</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.0006260630572148339</v>
+        <v>0.004379587628498551</v>
       </c>
       <c r="FU16" t="n">
-        <v>-0</v>
+        <v>-0.3123973185146371</v>
       </c>
       <c r="FV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY16" t="n">
-        <v>0</v>
+        <v>-0.09610245220745987</v>
       </c>
       <c r="FZ16" t="n">
         <v>-0</v>
       </c>
       <c r="GA16" t="n">
-        <v>0.06955472564637759</v>
+        <v>0</v>
       </c>
       <c r="GB16" t="n">
-        <v>-7.265648137074599e-05</v>
+        <v>0</v>
       </c>
       <c r="GC16" t="n">
         <v>-0</v>
       </c>
       <c r="GD16" t="n">
-        <v>-0</v>
+        <v>-0.05448303746657592</v>
       </c>
       <c r="GE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
